--- a/ApplicationTestData/PriceRule.xlsx
+++ b/ApplicationTestData/PriceRule.xlsx
@@ -700,7 +700,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -955,7 +955,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B2" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ApplicationTestData/PriceRule.xlsx
+++ b/ApplicationTestData/PriceRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>userName</t>
   </si>
@@ -75,9 +75,6 @@
     <t>6000</t>
   </si>
   <si>
-    <t>VehicleStockNumber</t>
-  </si>
-  <si>
     <t>Dealer Discount</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>EndDate</t>
   </si>
   <si>
-    <t>24/02/2018</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -202,45 +196,6 @@
   </si>
   <si>
     <t>http://citroen-annecy.stg-eudemosite.com/vehicules-neufs-stock-fr-fr.htm</t>
-  </si>
-  <si>
-    <t>15/05/2018</t>
-  </si>
-  <si>
-    <t>R-LS6118</t>
-  </si>
-  <si>
-    <t>R-LM5032</t>
-  </si>
-  <si>
-    <t>R-LX5065</t>
-  </si>
-  <si>
-    <t>R-ME6488</t>
-  </si>
-  <si>
-    <t>R-MB4100</t>
-  </si>
-  <si>
-    <t>R-MG0134</t>
-  </si>
-  <si>
-    <t>R-MI4137</t>
-  </si>
-  <si>
-    <t>R-LV5771</t>
-  </si>
-  <si>
-    <t>R-MD3278</t>
-  </si>
-  <si>
-    <t>R-MF2948</t>
-  </si>
-  <si>
-    <t>R-MU8791</t>
-  </si>
-  <si>
-    <t>R-MI2821</t>
   </si>
 </sst>
 </file>
@@ -299,7 +254,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -317,6 +272,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -671,7 +629,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -681,12 +639,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -699,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,12 +666,13 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -728,25 +687,25 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>8</v>
@@ -770,9 +729,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
         <v>12</v>
@@ -783,30 +740,28 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -815,93 +770,85 @@
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="30">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="L6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -912,36 +859,32 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I8" s="5"/>
       <c r="K8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +898,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,60 +913,29 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>73</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="9"/>
@@ -1060,7 +972,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1085,18 +997,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
